--- a/TestInput/HybridData.xlsx
+++ b/TestInput/HybridData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\software\OJT proejct workspace\ERP_hybrid\TestInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE473B4B-C32C-4FE1-B94B-35F1AC962C33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027E175D-517A-445D-AC90-05D645EEBC38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" activeTab="1" xr2:uid="{FC18CD2A-EBAC-4476-A26A-B7D207300C7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FC18CD2A-EBAC-4476-A26A-B7D207300C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -89,13 +89,112 @@
   </si>
   <si>
     <t>TestData</t>
+  </si>
+  <si>
+    <t>Launch browser</t>
+  </si>
+  <si>
+    <t>startBrowser</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Launch url in browser</t>
+  </si>
+  <si>
+    <t>openApplication</t>
+  </si>
+  <si>
+    <t>wait for username</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Enter username</t>
+  </si>
+  <si>
+    <t>typeAction</t>
+  </si>
+  <si>
+    <t>wait for password</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>wait for login button</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>click login</t>
+  </si>
+  <si>
+    <t>clickAction</t>
+  </si>
+  <si>
+    <t>wait for logout</t>
+  </si>
+  <si>
+    <t>verify title</t>
+  </si>
+  <si>
+    <t>validateTitle</t>
+  </si>
+  <si>
+    <t>click logout</t>
+  </si>
+  <si>
+    <t>wait for ok button</t>
+  </si>
+  <si>
+    <t>click ok button</t>
+  </si>
+  <si>
+    <t>close browser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>//input[@name='password']</t>
+  </si>
+  <si>
+    <t>btnsubmit</t>
+  </si>
+  <si>
+    <t>//a[@id='logout']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard « Stock Accounting </t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +213,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -146,10 +253,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,41 +666,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AEDADB-2C04-4F90-B8FF-6C8B57D1CC81}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>